--- a/teaching/traditional_assets/database/data/pakistan/pakistan_r_e_i_t.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_r_e_i_t.xlsx
@@ -597,34 +597,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8209606986899564</v>
+        <v>0.8220858895705522</v>
       </c>
       <c r="J2">
-        <v>0.8209606986899564</v>
+        <v>0.8220858895705522</v>
       </c>
       <c r="K2">
-        <v>44.4</v>
+        <v>47.5</v>
       </c>
       <c r="L2">
-        <v>1.938864628820961</v>
+        <v>2.914110429447853</v>
       </c>
       <c r="M2">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="N2">
-        <v>0.1048522030117122</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="O2">
-        <v>0.4234234234234234</v>
+        <v>0.3536842105263158</v>
       </c>
       <c r="P2">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="Q2">
-        <v>0.1048522030117122</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="R2">
-        <v>0.4234234234234234</v>
+        <v>0.3536842105263158</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,31 +633,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>7.16</v>
       </c>
       <c r="V2">
-        <v>0.05577244841048522</v>
+        <v>0.04864130434782609</v>
       </c>
       <c r="W2">
-        <v>0.1299385425812116</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="X2">
-        <v>0.05929964986377263</v>
+        <v>0.08177085369517975</v>
       </c>
       <c r="Y2">
-        <v>0.07063889271743896</v>
+        <v>0.07848555656123052</v>
       </c>
       <c r="Z2">
-        <v>0.06939393939393938</v>
+        <v>0.05691340782122906</v>
       </c>
       <c r="AA2">
-        <v>0.05696969696969697</v>
+        <v>0.04678770949720671</v>
       </c>
       <c r="AB2">
-        <v>0.05929964986377263</v>
+        <v>0.08177085369517975</v>
       </c>
       <c r="AC2">
-        <v>-0.002329952894075664</v>
+        <v>-0.03498314419797304</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-10</v>
+        <v>-7.16</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.05906674542232723</v>
+        <v>-0.0511282490716938</v>
       </c>
       <c r="AK2">
-        <v>-0.03491620111731844</v>
+        <v>-0.02364284770836085</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-1.09</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="AQ2">
-        <v>-17.24770642201835</v>
+        <v>-14.24017003188098</v>
       </c>
     </row>
     <row r="3">
@@ -716,34 +716,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8209606986899564</v>
+        <v>0.8220858895705522</v>
       </c>
       <c r="J3">
-        <v>0.8209606986899564</v>
+        <v>0.8220858895705522</v>
       </c>
       <c r="K3">
-        <v>44.4</v>
+        <v>47.5</v>
       </c>
       <c r="L3">
-        <v>1.938864628820961</v>
+        <v>2.914110429447853</v>
       </c>
       <c r="M3">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="N3">
-        <v>0.1048522030117122</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="O3">
-        <v>0.4234234234234234</v>
+        <v>0.3536842105263158</v>
       </c>
       <c r="P3">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="Q3">
-        <v>0.1048522030117122</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="R3">
-        <v>0.4234234234234234</v>
+        <v>0.3536842105263158</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -752,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>7.16</v>
       </c>
       <c r="V3">
-        <v>0.05577244841048522</v>
+        <v>0.04864130434782609</v>
       </c>
       <c r="W3">
-        <v>0.1299385425812116</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="X3">
-        <v>0.05929964986377263</v>
+        <v>0.08177085369517975</v>
       </c>
       <c r="Y3">
-        <v>0.07063889271743896</v>
+        <v>0.07848555656123052</v>
       </c>
       <c r="Z3">
-        <v>0.06939393939393938</v>
+        <v>0.05691340782122906</v>
       </c>
       <c r="AA3">
-        <v>0.05696969696969697</v>
+        <v>0.04678770949720671</v>
       </c>
       <c r="AB3">
-        <v>0.05929964986377263</v>
+        <v>0.08177085369517975</v>
       </c>
       <c r="AC3">
-        <v>-0.002329952894075664</v>
+        <v>-0.03498314419797304</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-10</v>
+        <v>-7.16</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.05906674542232723</v>
+        <v>-0.0511282490716938</v>
       </c>
       <c r="AK3">
-        <v>-0.03491620111731844</v>
+        <v>-0.02364284770836085</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.09</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="AQ3">
-        <v>-17.24770642201835</v>
+        <v>-14.24017003188098</v>
       </c>
     </row>
   </sheetData>
